--- a/files/sample.xlsx
+++ b/files/sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25125" windowHeight="11085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
   </si>
   <si>
     <t>* 이름과 메일주소를 정해진 장소에 입력만 해 주시면 됩니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 1번에 300통까지 전송가능하므로, 300씩 끊어서 전송합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -401,25 +397,24 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
